--- a/app/config/tables/seguimento/forms/outroDia/outroDia.xlsx
+++ b/app/config/tables/seguimento/forms/outroDia/outroDia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\outroDia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F89C59-41A7-4B9B-B4B1-ADD9FE07DA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02699F3-063D-4DD5-9E71-DD80FE4B271D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="14055" windowWidth="13680" windowHeight="4410" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3342,8 +3342,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
